--- a/tests/db/Case_Data.xlsx
+++ b/tests/db/Case_Data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K501"/>
+  <dimension ref="A2:K525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -23336,6 +23336,1094 @@
       <c r="I501" t="inlineStr">
         <is>
           <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/tests/db/Case_Data.xlsx
+++ b/tests/db/Case_Data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K525"/>
+  <dimension ref="A2:K535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -24424,6 +24424,476 @@
       <c r="K525" t="inlineStr">
         <is>
           <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>$ 50</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>$ 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Speeding &gt; 25 mph</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>4511.21(B)(2)</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Minor Misdemeanor</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>$ 50</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>$ 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Speeding &gt; 25 mph</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>4511.21(B)(2)</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Minor Misdemeanor</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>$ 0</t>
         </is>
       </c>
     </row>

--- a/tests/db/Case_Data.xlsx
+++ b/tests/db/Case_Data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K535"/>
+  <dimension ref="A2:K583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -24894,6 +24894,2182 @@
       <c r="I535" t="inlineStr">
         <is>
           <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/tests/db/Case_Data.xlsx
+++ b/tests/db/Case_Data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K583"/>
+  <dimension ref="A2:K607"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -27068,6 +27068,1094 @@
         </is>
       </c>
       <c r="K583" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
         <is>
           <t>None</t>
         </is>

--- a/tests/db/Case_Data.xlsx
+++ b/tests/db/Case_Data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K607"/>
+  <dimension ref="A2:K631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -28156,6 +28156,1094 @@
         </is>
       </c>
       <c r="K607" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>DUS UCM</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>FAILURE TO REINSTATE LICENSE UCM 1-2/3YRS</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
         <is>
           <t>None</t>
         </is>

--- a/tests/db/Case_Data.xlsx
+++ b/tests/db/Case_Data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K1334"/>
+  <dimension ref="A2:K1394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -64732,6 +64732,3226 @@
         </is>
       </c>
       <c r="K1334" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1335" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1335" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1335" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1336" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1336" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1336" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1336" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1337" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1337" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1337" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1337" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1337" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1338" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1338" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1338" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1338" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1339" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1339" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1339" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1339" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1339" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1339" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1340" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1340" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1340" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1340" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1340" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1340" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1340" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1341" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1341" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1341" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1341" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1341" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1341" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1341" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1342" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1342" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1342" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1342" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1342" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1342" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1343" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1343" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1343" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1343" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1343" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1343" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1343" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1344" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1344" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1344" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1344" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1344" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1344" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1344" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1345" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1345" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1345" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1345" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1345" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1345" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1346" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1346" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1346" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1346" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1346" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1346" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1346" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1347" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1347" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1347" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1347" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1347" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1348" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1348" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1348" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1348" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1348" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1349" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1349" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1349" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1349" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1349" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1350" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1350" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1350" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1350" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1350" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1351" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1351" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1351" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1351" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1351" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1351" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1351" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1352" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1352" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1352" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1352" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1352" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1352" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1352" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1353" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1353" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1353" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1353" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1353" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1353" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1353" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1354" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1354" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1354" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1354" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1354" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1354" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1354" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1355" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1355" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1355" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1355" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1355" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1355" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1355" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1356" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1356" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1356" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1356" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1356" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1356" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1356" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1357" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1357" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1357" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1357" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1357" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1357" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1357" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1358" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1358" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1358" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1358" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1358" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1358" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1358" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1359" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1359" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1359" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1359" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1359" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1360" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1360" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1360" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1360" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1360" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1361" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1361" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1361" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1361" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1361" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1362" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1362" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1362" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1362" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1362" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1363" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1363" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1363" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1363" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1363" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1363" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1363" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1364" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1364" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1364" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1364" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1364" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1364" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1364" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1365" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1365" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1365" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1365" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1365" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1365" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1365" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1366" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1366" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1366" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1366" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1366" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1366" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1366" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1367" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1367" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1367" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1367" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1367" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1367" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1367" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1368" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1368" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1368" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1368" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1368" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1368" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1368" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1369" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1369" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1369" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1369" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1369" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1369" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1369" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1370" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1370" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1370" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1370" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1370" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1370" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1370" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1371" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1371" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1371" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1371" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1372" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1372" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1372" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1372" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1372" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1373" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1373" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1373" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1373" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1373" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1374" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1374" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1374" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1374" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1374" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1375" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1375" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1375" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1375" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1375" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1375" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1375" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1376" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1376" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1376" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1376" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1376" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1376" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1376" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1377" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1377" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1377" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1377" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1377" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1377" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1377" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1378" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1378" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1378" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1378" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1378" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1378" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1378" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1379" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1379" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1379" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1379" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1379" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1379" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1380" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1380" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1380" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1380" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1380" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1380" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1381" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1381" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1381" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1381" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1381" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1381" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1382" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1382" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1382" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1382" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1382" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1382" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1382" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1383" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1383" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1383" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1383" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1383" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1384" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1384" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1384" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1384" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1384" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1385" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1385" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1385" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1385" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1386" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1386" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1386" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1386" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1387" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1387" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1387" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1387" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1387" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1387" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1388" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1388" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1388" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1388" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1388" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1388" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1389" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1389" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1389" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1389" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1389" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1389" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1390" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1390" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1390" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1390" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1390" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1390" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1391" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1391" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1391" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1391" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1391" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1391" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1392" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1392" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1392" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1392" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1392" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1392" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1393" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1393" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1393" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1393" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1393" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1393" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1394" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1394" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1394" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1394" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1394" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1394" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1394" t="inlineStr">
         <is>
           <t>None</t>
         </is>

--- a/tests/db/Case_Data.xlsx
+++ b/tests/db/Case_Data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K1394"/>
+  <dimension ref="A2:K1410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -67952,6 +67952,838 @@
         </is>
       </c>
       <c r="K1394" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1395" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1395" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1395" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1395" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1396" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1396" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1396" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1396" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1396" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1397" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1397" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1397" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1397" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1397" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1398" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1398" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1398" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1398" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1398" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1399" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1399" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1399" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1399" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1399" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1399" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1400" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1400" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1400" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1400" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1400" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1401" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1401" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1401" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1401" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1401" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1401" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1402" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="G1402" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1402" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1402" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1402" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1402" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1403" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1403" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1403" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1403" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1404" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1404" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1404" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1404" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1405" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1405" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1405" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1405" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1405" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1406" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1406" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1406" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1406" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1406" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>DUS Ucm</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>4510.111</t>
+        </is>
+      </c>
+      <c r="E1407" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1407" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1407" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1407" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1407" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1407" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1407" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>Operating W/o A Valid Ol - Ucm</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>4510.12</t>
+        </is>
+      </c>
+      <c r="E1408" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1408" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1408" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1408" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1408" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1408" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1408" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>Failure To Reinstate License Ucm 1-2/3yrs</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>4510.21A*</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>UCM</t>
+        </is>
+      </c>
+      <c r="F1409" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1409" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1409" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1409" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1409" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1409" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>21TRD09200</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>Bunner</t>
+        </is>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>Failure To File Registration</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>4503.11</t>
+        </is>
+      </c>
+      <c r="E1410" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="F1410" t="inlineStr">
+        <is>
+          <t>No Contest</t>
+        </is>
+      </c>
+      <c r="G1410" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="H1410" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="I1410" t="inlineStr">
+        <is>
+          <t>$ 0</t>
+        </is>
+      </c>
+      <c r="J1410" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1410" t="inlineStr">
         <is>
           <t>None</t>
         </is>
